--- a/FancyFix.OA/Content/files/产品库产品导入模版.xlsx
+++ b/FancyFix.OA/Content/files/产品库产品导入模版.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\Fancy-fix\源代码\OA\FancyFix.OA\FancyFix.OA\Content\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22728" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>产品中文名称</t>
   </si>
@@ -41,6 +46,57 @@
   </si>
   <si>
     <t>开票品名</t>
+  </si>
+  <si>
+    <t>封面图地址</t>
+  </si>
+  <si>
+    <t>墙贴/133010.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙贴/133011.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试标题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试标题2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test title 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test title 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100*200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -52,13 +108,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -392,13 +447,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="1" customWidth="1"/>
@@ -409,10 +464,11 @@
     <col min="7" max="7" width="23.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,11 +495,78 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10000000001</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000000001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>